--- a/public/DataUser/Daftar User Wakaf Salman Import.xlsx
+++ b/public/DataUser/Daftar User Wakaf Salman Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273B5F42-8D2F-4B41-B9E9-F376FEA8D322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D14C47D-31FF-461D-A7DA-38F4A820C211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="720" windowWidth="28785" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="28785" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,34 +32,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>2022-02-08T03:28:18.000000Z</t>
+    <t>$2y$10$GLRKi6mcGsXAF.ra2fnUgeKp4mbZ9fIto0s5HxOKDsbQZabLiyw4C</t>
   </si>
   <si>
-    <t>Test Import</t>
+    <t>Test</t>
   </si>
   <si>
-    <t>test@import.com</t>
-  </si>
-  <si>
-    <t>$2y$10$GLRKi6mcGsXAF.ra2fnUgeKp4mbZ9fIto0s5HxOKDsbQZabLiyw4C</t>
+    <t>test@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -79,16 +71,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,41 +380,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F1"/>
+  <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{736C705C-0D49-40F2-AB8A-83B6B764502D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>